--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/SalaryInformation.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/SalaryInformation.xlsx
@@ -25,20 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>MaNV</t>
   </si>
   <si>
     <t>Tên NV</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Basic Salary
-기본 급여</t>
-  </si>
-  <si>
-    <t>Living Allowance
-생활 보조금</t>
   </si>
   <si>
     <t>Ability Allowance
@@ -92,9 +84,6 @@
   </si>
   <si>
     <t>o</t>
-  </si>
-  <si>
-    <t>Incentive Cơ bản</t>
   </si>
   <si>
     <t>PC ngoại ngữ</t>
@@ -546,23 +535,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="24.5703125" customWidth="1"/>
-    <col min="10" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1"/>
-    <col min="14" max="14" width="29.85546875" customWidth="1"/>
-    <col min="15" max="19" width="24.28515625" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="1" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="9" width="24.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" customWidth="1"/>
+    <col min="12" max="16" width="24.28515625" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -572,120 +561,105 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3" t="s">
-        <v>13</v>
+      <c r="Q3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -698,13 +672,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O3 R2:R3 T2:T3</xm:sqref>
+          <xm:sqref>L2:L3 O2:O3 Q2:Q3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$A$5:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:K3</xm:sqref>
+          <xm:sqref>G2:H3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -724,37 +698,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/SalaryInformation.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/SalaryInformation.xlsx
@@ -538,7 +538,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/SalaryInformation.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/SalaryInformation.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>MaNV</t>
   </si>
@@ -93,12 +93,6 @@
   </si>
   <si>
     <t>PC khác</t>
-  </si>
-  <si>
-    <t>Đánh giá (Incentive 6 tháng đầu năm)</t>
-  </si>
-  <si>
-    <t>Đánh giá (Incentive 6 tháng cuối năm)</t>
   </si>
   <si>
     <t>A</t>
@@ -146,7 +140,7 @@
       <name val="Times"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,12 +174,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -250,9 +238,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -535,23 +520,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="9" width="24.28515625" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" customWidth="1"/>
-    <col min="12" max="16" width="24.28515625" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" customWidth="1"/>
+    <col min="10" max="14" width="24.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -570,95 +555,77 @@
       <c r="F1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="K1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -667,18 +634,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L3 O2:O3 Q2:Q3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet1!$A$5:$A$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:H3</xm:sqref>
+          <xm:sqref>J2:J3 M2:M3 O2:O3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -708,27 +669,27 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/SalaryInformation.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/SalaryInformation.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Source\NET CORE\ASP.NET CORE\HRMNS\HRMS\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FBD154-EC23-4872-87E0-78EEA04159E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>MaNV</t>
   </si>
@@ -83,9 +94,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
     <t>PC ngoại ngữ</t>
   </si>
   <si>
@@ -95,28 +103,16 @@
     <t>PC khác</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Thuộc đối tượng phu cấp đôc hại</t>
+  </si>
+  <si>
+    <t>Năm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -519,11 +515,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +532,7 @@
     <col min="15" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -547,13 +543,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>8</v>
@@ -580,10 +576,13 @@
         <v>10</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -605,8 +604,11 @@
       <c r="O2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="P2" s="3">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -628,6 +630,9 @@
       <c r="O3" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="P3" s="3">
+        <v>2024</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -635,9 +640,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>Sheet1!$A$1:$A$2</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>J2:J3 M2:M3 O2:O3</xm:sqref>
         </x14:dataValidation>
@@ -645,54 +650,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>